--- a/activity_code/list.xlsx
+++ b/activity_code/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldallara\Documents\ArgoX3mobile\CORE\activity_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\activity_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDA0F25-102F-4BF0-89DC-6A5B22FB93E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D8E512-C5D2-4320-A0B3-CA08936618AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco codici attività" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>YAX3M</t>
   </si>
   <si>
-    <t>App ArgoX3 Mobile</t>
+    <t>App ArgoX3 Mobile (* ora si chiama YAPP)</t>
   </si>
 </sst>
 </file>
@@ -85,7 +85,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -369,12 +369,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="89.28515625" customWidth="1"/>
+    <col min="2" max="2" width="89.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -382,7 +382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
